--- a/features.xlsx
+++ b/features.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c281808eb96e52a/Documents/Code/probabilistic-afl-tipping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048D0D91D7AE25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67A8624-070F-49E6-886D-2690B5E94F7B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC1048D0D91D7AE25ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417C876E-E6A7-4AFE-A42A-A31B994AE467}"/>
   <bookViews>
-    <workbookView xWindow="-49800" yWindow="4065" windowWidth="23280" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30045" yWindow="1395" windowWidth="23475" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Round 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +23,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,7 +344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -351,4 +356,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8613F739-D4BE-43A5-8D46-95670741E593}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>